--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\fuels\BCTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/fuels/bctr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED464C-FC0C-47EF-A2C1-21B0B5CF6166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A00B6D-0938-0949-ACFB-B1B53889745B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="3460" yWindow="460" windowWidth="23960" windowHeight="15800" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -136,11 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,18 +456,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357908-BC85-41CC-9D98-173369A13AF6}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="4">
+        <v>44307</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -474,17 +478,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -504,12 +508,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -610,7 +614,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -711,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -812,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -913,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>

--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/fuels/bctr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/bctr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A00B6D-0938-0949-ACFB-B1B53889745B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775300D7-A8CC-6A43-81FD-2B4476172F3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="460" windowWidth="23960" windowHeight="15800" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="3460" yWindow="460" windowWidth="23960" windowHeight="16060" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
